--- a/Generator/Entity/Document/TalentInfo.xlsx
+++ b/Generator/Entity/Document/TalentInfo.xlsx
@@ -14,10 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t>正则表达</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -33,238 +33,218 @@
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>必须项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>是/否</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型枚举</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Key项目</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>领域专家填写</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>开发人员填写</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>用户交互设计</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>领域项目名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>变量名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>数据模型名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>名字空间名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>数据集名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>主键前缀</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>列表类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>继承</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>EntityBase</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
   </si>
   <si>
     <t>说明标题</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>画面表示名称</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>标记</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>HIDDEN</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>SuperClass</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Flag</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>SKIP</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>检索关键字</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SearchKey</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AccessRight</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>访问权限</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>公开给好友</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>人才储备</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
@@ -285,17 +265,11 @@
     <t>语言</t>
   </si>
   <si>
-    <t>市场背景</t>
-  </si>
-  <si>
-    <t>技术背景</t>
-  </si>
-  <si>
     <t>招聘渠道</t>
   </si>
   <si>
     <t>Channel</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -305,121 +279,200 @@
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompanyTable</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>LanguageList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>SkillList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Mobile</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TalentInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>TalentInfo</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>生日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>BirthDay</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>MarketBGList</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_MarketBG</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_TechniqueBG</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TechniqueBG</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>辅助评价表</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKIP</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIDDEN</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语名</t>
+  </si>
+  <si>
+    <t>EnglishName</t>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>BornIn</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>常住地</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>^1[3458][0-9]{9}$</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>普通枚举</t>
+  </si>
+  <si>
+    <t>海外工作背景</t>
+  </si>
+  <si>
+    <t>OverseaWork</t>
+  </si>
+  <si>
+    <t>海外教育背景</t>
+  </si>
+  <si>
+    <t>OverseaEdu</t>
+  </si>
+  <si>
+    <t>行业背景</t>
+  </si>
+  <si>
+    <t>IndustryBackgroundList</t>
+  </si>
+  <si>
+    <t>M_IndustryBackground</t>
+  </si>
+  <si>
+    <t>上一家公司</t>
+  </si>
+  <si>
+    <t>上一家公司行业</t>
+  </si>
+  <si>
+    <t>PreEmp</t>
+  </si>
+  <si>
+    <t>PerInd</t>
+  </si>
+  <si>
+    <t>M_Channel</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>TalentRank</t>
+  </si>
+  <si>
+    <t>AcademicType</t>
+  </si>
+  <si>
+    <t>CommonGrade</t>
+  </si>
+  <si>
+    <t>目录表</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Skill</t>
+  </si>
+  <si>
+    <t>M_Language</t>
+  </si>
+  <si>
+    <t>Organization</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号格式不正确</t>
+  </si>
+  <si>
+    <t>辅助表</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +480,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -695,71 +755,74 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -768,88 +831,91 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1146,13 +1212,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP38"/>
+  <dimension ref="A1:AP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="W6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J9" sqref="J9"/>
+      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -1177,24 +1243,24 @@
       <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="27"/>
+      <c r="C2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="49"/>
       <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="27"/>
+      <c r="F2" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="49"/>
       <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="J2" s="28"/>
+      <c r="I2" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="50"/>
       <c r="AA2" s="3" t="s">
         <v>54</v>
       </c>
@@ -1202,7 +1268,7 @@
         <v>48</v>
       </c>
       <c r="AC2" s="18" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>49</v>
@@ -1224,26 +1290,29 @@
       </c>
       <c r="AO2" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="AP2" s="53" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
       <c r="H3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="25"/>
+      <c r="I3" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" s="47"/>
       <c r="AA3" s="3" t="s">
         <v>55</v>
       </c>
@@ -1277,51 +1346,51 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="18.75" customHeight="1">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="34" t="s">
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="38" t="s">
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="46" t="s">
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="47"/>
-      <c r="P5" s="47"/>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="47"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49" t="s">
+      <c r="O5" s="31"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+      <c r="U5" s="31"/>
+      <c r="V5" s="31"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="50"/>
-      <c r="Z5" s="42" t="s">
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="42"/>
+      <c r="AA5" s="25"/>
+      <c r="AB5" s="25"/>
     </row>
     <row r="6" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -1333,10 +1402,10 @@
       <c r="F6" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="26" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="35" t="s">
@@ -1345,62 +1414,62 @@
       <c r="J6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="32" t="s">
+      <c r="L6" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37" t="s">
+      <c r="O6" s="26"/>
+      <c r="P6" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="43" t="s">
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="44"/>
-      <c r="U6" s="45"/>
-      <c r="V6" s="43" t="s">
+      <c r="T6" s="28"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="45"/>
+      <c r="W6" s="29"/>
       <c r="X6" s="35" t="s">
         <v>45</v>
       </c>
       <c r="Y6" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="37" t="s">
+      <c r="Z6" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="37" t="s">
+      <c r="AA6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="37" t="s">
+      <c r="AB6" s="26" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="37"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="26"/>
       <c r="D7" s="36"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
       <c r="I7" s="36"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
+      <c r="K7" s="40"/>
+      <c r="L7" s="40"/>
+      <c r="M7" s="40"/>
       <c r="N7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1433,21 +1502,19 @@
       </c>
       <c r="X7" s="36"/>
       <c r="Y7" s="36"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="37"/>
-      <c r="AB7" s="37"/>
+      <c r="Z7" s="26"/>
+      <c r="AA7" s="26"/>
+      <c r="AB7" s="26"/>
     </row>
     <row r="8" spans="1:42" s="17" customFormat="1">
-      <c r="B8" s="51" t="s">
-        <v>99</v>
-      </c>
+      <c r="B8" s="24"/>
       <c r="C8" s="4" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>3</v>
@@ -1455,13 +1522,13 @@
       <c r="H8" s="18"/>
       <c r="I8" s="18"/>
       <c r="J8" s="4" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
@@ -1479,29 +1546,27 @@
       <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="1:42" s="17" customFormat="1">
-      <c r="B9" s="18"/>
+      <c r="B9" s="24"/>
       <c r="C9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H9" s="18"/>
       <c r="I9" s="18"/>
       <c r="J9" s="4" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -1520,26 +1585,26 @@
     <row r="10" spans="1:42" s="17" customFormat="1">
       <c r="B10" s="18"/>
       <c r="C10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="18"/>
       <c r="I10" s="18"/>
       <c r="J10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
@@ -1550,7 +1615,9 @@
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
+      <c r="X10" s="18" t="s">
+        <v>4</v>
+      </c>
       <c r="Y10" s="18"/>
       <c r="Z10" s="18"/>
       <c r="AA10" s="19"/>
@@ -1559,12 +1626,12 @@
     <row r="11" spans="1:42" s="17" customFormat="1">
       <c r="B11" s="18"/>
       <c r="C11" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>3</v>
@@ -1572,14 +1639,12 @@
       <c r="H11" s="18"/>
       <c r="I11" s="18"/>
       <c r="J11" s="4" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="18" t="s">
-        <v>63</v>
-      </c>
+      <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
@@ -1589,9 +1654,7 @@
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
       <c r="W11" s="18"/>
-      <c r="X11" s="18" t="s">
-        <v>83</v>
-      </c>
+      <c r="X11" s="18"/>
       <c r="Y11" s="18"/>
       <c r="Z11" s="18"/>
       <c r="AA11" s="19"/>
@@ -1600,12 +1663,12 @@
     <row r="12" spans="1:42" s="17" customFormat="1">
       <c r="B12" s="18"/>
       <c r="C12" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>3</v>
@@ -1613,13 +1676,13 @@
       <c r="H12" s="18"/>
       <c r="I12" s="18"/>
       <c r="J12" s="4" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
@@ -1639,12 +1702,12 @@
     <row r="13" spans="1:42" s="17" customFormat="1">
       <c r="B13" s="18"/>
       <c r="C13" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>3</v>
@@ -1652,13 +1715,13 @@
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="4" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
@@ -1667,9 +1730,15 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
-      <c r="X13" s="18"/>
+      <c r="V13" s="51" t="s">
+        <v>93</v>
+      </c>
+      <c r="W13" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="X13" s="18" t="s">
+        <v>120</v>
+      </c>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
       <c r="AA13" s="19"/>
@@ -1678,27 +1747,27 @@
     <row r="14" spans="1:42" s="17" customFormat="1">
       <c r="B14" s="18"/>
       <c r="C14" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>96</v>
+        <v>3</v>
       </c>
       <c r="H14" s="18"/>
-      <c r="I14" s="23" t="s">
-        <v>97</v>
-      </c>
+      <c r="I14" s="18"/>
       <c r="J14" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="18"/>
+      <c r="N14" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
@@ -1708,7 +1777,9 @@
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
       <c r="W14" s="18"/>
-      <c r="X14" s="18"/>
+      <c r="X14" s="18" t="s">
+        <v>75</v>
+      </c>
       <c r="Y14" s="18"/>
       <c r="Z14" s="18"/>
       <c r="AA14" s="19"/>
@@ -1717,25 +1788,27 @@
     <row r="15" spans="1:42" s="17" customFormat="1">
       <c r="B15" s="18"/>
       <c r="C15" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H15" s="18"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="18"/>
       <c r="J15" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="18"/>
+      <c r="N15" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
@@ -1754,29 +1827,27 @@
     <row r="16" spans="1:42" s="17" customFormat="1">
       <c r="B16" s="18"/>
       <c r="C16" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="22" t="s">
-        <v>91</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
       <c r="J16" s="4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="18"/>
+      <c r="N16" s="18" t="s">
+        <v>58</v>
+      </c>
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
@@ -1795,7 +1866,7 @@
     <row r="17" spans="2:28" s="17" customFormat="1">
       <c r="B17" s="18"/>
       <c r="C17" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -1803,14 +1874,14 @@
         <v>95</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H17" s="22" t="s">
-        <v>94</v>
+        <v>96</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>114</v>
       </c>
       <c r="I17" s="18"/>
       <c r="J17" s="4" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
@@ -1834,19 +1905,20 @@
     <row r="18" spans="2:28" s="17" customFormat="1">
       <c r="B18" s="18"/>
       <c r="C18" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
+      <c r="I18" s="21"/>
       <c r="J18" s="4" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
@@ -1868,24 +1940,22 @@
       <c r="AB18" s="20"/>
     </row>
     <row r="19" spans="2:28" s="17" customFormat="1">
-      <c r="B19" s="51" t="s">
-        <v>98</v>
-      </c>
+      <c r="B19" s="18"/>
       <c r="C19" s="4" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
+      <c r="I19" s="21"/>
       <c r="J19" s="4" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
@@ -1906,282 +1976,355 @@
       <c r="AA19" s="19"/>
       <c r="AB19" s="20"/>
     </row>
-    <row r="20" spans="2:28" s="12" customFormat="1">
+    <row r="20" spans="2:28" s="17" customFormat="1">
       <c r="B20" s="18"/>
       <c r="C20" s="4" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
+        <v>82</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>83</v>
+      </c>
       <c r="J20" s="4" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-      <c r="X20" s="13"/>
-      <c r="Y20" s="13"/>
-      <c r="Z20" s="13"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="15"/>
-    </row>
-    <row r="21" spans="2:28" s="12" customFormat="1">
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="20"/>
+    </row>
+    <row r="21" spans="2:28" s="17" customFormat="1">
       <c r="B21" s="18"/>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
+        <v>3</v>
+      </c>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="4" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
-      <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="13"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="15"/>
-    </row>
-    <row r="22" spans="2:28">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-    </row>
-    <row r="23" spans="2:28">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
-    </row>
-    <row r="24" spans="2:28">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-    </row>
-    <row r="25" spans="2:28">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
-    </row>
-    <row r="26" spans="2:28">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-    </row>
-    <row r="27" spans="2:28">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-    </row>
-    <row r="28" spans="2:28">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-      <c r="AA28" s="2"/>
-      <c r="AB28" s="2"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="20"/>
+    </row>
+    <row r="22" spans="2:28" s="17" customFormat="1">
+      <c r="B22" s="18"/>
+      <c r="C22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="18"/>
+      <c r="J22" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="20"/>
+    </row>
+    <row r="23" spans="2:28" s="17" customFormat="1">
+      <c r="B23" s="18"/>
+      <c r="C23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I23" s="18"/>
+      <c r="J23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="20"/>
+    </row>
+    <row r="24" spans="2:28" s="17" customFormat="1">
+      <c r="B24" s="18"/>
+      <c r="C24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="20"/>
+    </row>
+    <row r="25" spans="2:28" s="17" customFormat="1">
+      <c r="B25" s="18"/>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="I25" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="20"/>
+    </row>
+    <row r="26" spans="2:28" s="17" customFormat="1">
+      <c r="B26" s="18"/>
+      <c r="C26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" s="51"/>
+      <c r="J26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="20"/>
+    </row>
+    <row r="27" spans="2:28" s="12" customFormat="1">
+      <c r="B27" s="18"/>
+      <c r="C27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="15"/>
+    </row>
+    <row r="28" spans="2:28" s="17" customFormat="1">
+      <c r="B28" s="24"/>
+      <c r="C28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="20"/>
     </row>
     <row r="29" spans="2:28">
       <c r="B29" s="2"/>
@@ -2473,20 +2616,159 @@
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
     </row>
+    <row r="39" spans="2:28">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+    </row>
+    <row r="40" spans="2:28">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+    </row>
+    <row r="41" spans="2:28">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+    </row>
+    <row r="42" spans="2:28">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+    </row>
+    <row r="43" spans="2:28">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="F5:J5"/>
@@ -2501,20 +2783,29 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B22:B1048576 B1:B7">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B1048576 B1:B7">
       <formula1>$AB$3:$AC$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X12 X14:X1048576">
       <formula1>$AK$2:$AO$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X13">
+      <formula1>$AK$2:$AP$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Generator/Entity/Document/TalentInfo.xlsx
+++ b/Generator/Entity/Document/TalentInfo.xlsx
@@ -17,7 +17,7 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
   <si>
     <t>正则表达</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>布尔值</t>
@@ -33,218 +33,218 @@
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>格式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>版本控制</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>必须项目</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>数值范围</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>字符串长度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>模式</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>表示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>更新者</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>更新日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>是/否</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>错误信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>最小值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>最大值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>密码</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>日期时间</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型枚举</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>枚举类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>元数据类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>普通枚举</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>旗标枚举</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Key项目</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>长度</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>默认值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>领域专家填写</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>开发人员填写</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>含义</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>输入规则</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>数据库设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>用户交互设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>领域项目名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>变量名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>数据模型名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>名字空间名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>数据集名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>主键前缀</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>数据使用类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>列表类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>继承</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>EntityBase</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>MasterTable</t>
   </si>
   <si>
     <t>说明标题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>画面表示名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>标记</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>HIDDEN</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SuperClass</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Flag</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SKIP</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>人才储备</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>姓名</t>
@@ -269,7 +269,7 @@
   </si>
   <si>
     <t>Channel</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
@@ -279,74 +279,74 @@
   </si>
   <si>
     <t>CompanyTable</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>LanguageList</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>SkillList</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>技能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>手机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Mobile</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>电子邮件</t>
   </si>
   <si>
     <t>电子邮件</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Email</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TalentInfo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>TalentInfo</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>生日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>BirthDay</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>辅助表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>辅助评价表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>英语名</t>
@@ -356,22 +356,22 @@
   </si>
   <si>
     <t>出生地</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>BornIn</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>Location</t>
   </si>
   <si>
     <t>常住地</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>^1[3458][0-9]{9}$</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>学位</t>
@@ -420,7 +420,7 @@
   </si>
   <si>
     <t>Y</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>评价</t>
@@ -442,7 +442,7 @@
   </si>
   <si>
     <t>目录表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>M_Skill</t>
@@ -451,28 +451,28 @@
     <t>M_Language</t>
   </si>
   <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机号格式不正确</t>
+  </si>
+  <si>
+    <t>辅助表</t>
+  </si>
+  <si>
     <t>Organization</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号格式不正确</t>
-  </si>
-  <si>
-    <t>辅助表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +480,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -759,67 +766,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -831,92 +841,89 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1218,7 +1225,7 @@
       <pane xSplit="10" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H30" sqref="H30"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
@@ -1243,24 +1250,24 @@
       <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="48" t="s">
+      <c r="F2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="49"/>
+      <c r="G2" s="30"/>
       <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="J2" s="50"/>
+      <c r="I2" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="J2" s="31"/>
       <c r="AA2" s="3" t="s">
         <v>54</v>
       </c>
@@ -1291,28 +1298,28 @@
       <c r="AO2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="53" t="s">
-        <v>121</v>
+      <c r="AP2" s="26" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="46" t="s">
+      <c r="I3" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="47"/>
+      <c r="J3" s="28"/>
       <c r="AA3" s="3" t="s">
         <v>55</v>
       </c>
@@ -1346,130 +1353,130 @@
       </c>
     </row>
     <row r="5" spans="1:42" ht="18.75" customHeight="1">
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="41" t="s">
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42" t="s">
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="42"/>
-      <c r="M5" s="43"/>
-      <c r="N5" s="30" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="32"/>
-      <c r="X5" s="33" t="s">
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="50"/>
+      <c r="X5" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="25" t="s">
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AA5" s="25"/>
-      <c r="AB5" s="25"/>
+      <c r="AA5" s="44"/>
+      <c r="AB5" s="44"/>
     </row>
     <row r="6" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="35" t="s">
+      <c r="F6" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="37" t="s">
         <v>46</v>
       </c>
       <c r="J6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26" t="s">
+      <c r="O6" s="39"/>
+      <c r="P6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27" t="s">
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="29"/>
-      <c r="V6" s="27" t="s">
+      <c r="T6" s="46"/>
+      <c r="U6" s="47"/>
+      <c r="V6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="29"/>
-      <c r="X6" s="35" t="s">
+      <c r="W6" s="47"/>
+      <c r="X6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="35" t="s">
+      <c r="Y6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="26" t="s">
+      <c r="Z6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="26" t="s">
+      <c r="AA6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="26" t="s">
+      <c r="AB6" s="39" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:42" ht="14.25" customHeight="1">
-      <c r="B7" s="45"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="36"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="38"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
       <c r="N7" s="7" t="s">
         <v>17</v>
       </c>
@@ -1500,11 +1507,11 @@
       <c r="W7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="26"/>
-      <c r="AB7" s="26"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
     </row>
     <row r="8" spans="1:42" s="17" customFormat="1">
       <c r="B8" s="24"/>
@@ -1730,14 +1737,14 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
-      <c r="V13" s="51" t="s">
+      <c r="V13" s="25" t="s">
         <v>93</v>
       </c>
       <c r="W13" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="X13" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y13" s="18"/>
       <c r="Z13" s="18"/>
@@ -2065,7 +2072,7 @@
         <v>107</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H22" s="22" t="s">
         <v>103</v>
@@ -2103,7 +2110,7 @@
         <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H23" s="18" t="s">
         <v>108</v>
@@ -2188,7 +2195,7 @@
       <c r="H25" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="I25" s="51" t="s">
+      <c r="I25" s="25" t="s">
         <v>109</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -2229,7 +2236,7 @@
       <c r="H26" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="I26" s="51"/>
+      <c r="I26" s="25"/>
       <c r="J26" s="4" t="s">
         <v>112</v>
       </c>
@@ -2763,12 +2770,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="N5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="F5:J5"/>
@@ -2783,20 +2796,14 @@
     <mergeCell ref="L6:L7"/>
     <mergeCell ref="M6:M7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="N5:W5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B1048576 B1:B7">
       <formula1>$AB$3:$AC$3</formula1>

--- a/Generator/Entity/Document/TalentInfo.xlsx
+++ b/Generator/Entity/Document/TalentInfo.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="125">
   <si>
     <t>正则表达</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -278,193 +278,198 @@
     <t>Comment</t>
   </si>
   <si>
+    <t>LanguageList</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillList</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobile</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentInfo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>TalentInfo</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BirthDay</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助评价表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语名</t>
+  </si>
+  <si>
+    <t>EnglishName</t>
+  </si>
+  <si>
+    <t>出生地</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>BornIn</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>常住地</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位</t>
+  </si>
+  <si>
+    <t>Academic</t>
+  </si>
+  <si>
+    <t>普通枚举</t>
+  </si>
+  <si>
+    <t>海外工作背景</t>
+  </si>
+  <si>
+    <t>OverseaWork</t>
+  </si>
+  <si>
+    <t>海外教育背景</t>
+  </si>
+  <si>
+    <t>OverseaEdu</t>
+  </si>
+  <si>
+    <t>行业背景</t>
+  </si>
+  <si>
+    <t>IndustryBackgroundList</t>
+  </si>
+  <si>
+    <t>M_IndustryBackground</t>
+  </si>
+  <si>
+    <t>上一家公司</t>
+  </si>
+  <si>
+    <t>上一家公司行业</t>
+  </si>
+  <si>
+    <t>PreEmp</t>
+  </si>
+  <si>
+    <t>PerInd</t>
+  </si>
+  <si>
+    <t>M_Channel</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>TalentRank</t>
+  </si>
+  <si>
+    <t>AcademicType</t>
+  </si>
+  <si>
+    <t>CommonGrade</t>
+  </si>
+  <si>
+    <t>目录表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>M_Skill</t>
+  </si>
+  <si>
+    <t>M_Language</t>
+  </si>
+  <si>
+    <t>手机</t>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助表</t>
+  </si>
+  <si>
     <t>CompanyTable</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>LanguageList</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillList</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mobile</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮件</t>
-  </si>
-  <si>
-    <t>电子邮件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentInfo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>TalentInfo</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>BirthDay</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助评价表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>英语名</t>
-  </si>
-  <si>
-    <t>EnglishName</t>
-  </si>
-  <si>
-    <t>出生地</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>BornIn</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>常住地</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>^1[3458][0-9]{9}$</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>学位</t>
-  </si>
-  <si>
-    <t>Academic</t>
-  </si>
-  <si>
-    <t>普通枚举</t>
-  </si>
-  <si>
-    <t>海外工作背景</t>
-  </si>
-  <si>
-    <t>OverseaWork</t>
-  </si>
-  <si>
-    <t>海外教育背景</t>
-  </si>
-  <si>
-    <t>OverseaEdu</t>
-  </si>
-  <si>
-    <t>行业背景</t>
-  </si>
-  <si>
-    <t>IndustryBackgroundList</t>
-  </si>
-  <si>
-    <t>M_IndustryBackground</t>
-  </si>
-  <si>
-    <t>上一家公司</t>
-  </si>
-  <si>
-    <t>上一家公司行业</t>
-  </si>
-  <si>
-    <t>PreEmp</t>
-  </si>
-  <si>
-    <t>PerInd</t>
-  </si>
-  <si>
-    <t>M_Channel</t>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价</t>
-  </si>
-  <si>
-    <t>Evaluate</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>TalentRank</t>
-  </si>
-  <si>
-    <t>AcademicType</t>
-  </si>
-  <si>
-    <t>CommonGrade</t>
-  </si>
-  <si>
-    <t>目录表</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>M_Skill</t>
-  </si>
-  <si>
-    <t>M_Language</t>
-  </si>
-  <si>
-    <t>手机</t>
-  </si>
-  <si>
-    <t>手机</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>手机号格式不正确</t>
-  </si>
-  <si>
-    <t>辅助表</t>
-  </si>
-  <si>
-    <t>Organization</t>
+    <t>需要兼容海外手机,所以去除正则表达式</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部提供的原始数据无法做一个列表</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡伟敏</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录类型</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -762,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,12 +810,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -820,9 +819,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -844,6 +840,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -859,6 +861,9 @@
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -921,9 +926,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1222,25 +1224,19 @@
   <dimension ref="A1:AP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="10" ySplit="5" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="10" ySplit="5" topLeftCell="K6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="10" style="1"/>
-    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1"/>
-    <col min="5" max="5" width="15.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="1"/>
-    <col min="8" max="8" width="17.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" style="1"/>
-    <col min="10" max="10" width="16.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="10" style="1"/>
+    <col min="2" max="10" width="8.375" style="1" customWidth="1"/>
+    <col min="11" max="27" width="10" style="1"/>
+    <col min="28" max="28" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -1250,32 +1246,32 @@
       <c r="B2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="30"/>
+      <c r="C2" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="29"/>
       <c r="E2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="30"/>
+      <c r="F2" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" s="29"/>
       <c r="H2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="31"/>
+      <c r="I2" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="J2" s="30"/>
       <c r="AA2" s="3" t="s">
         <v>54</v>
       </c>
       <c r="AB2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AC2" s="18" t="s">
-        <v>69</v>
+      <c r="AC2" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="AD2" s="2" t="s">
         <v>49</v>
@@ -1298,28 +1294,28 @@
       <c r="AO2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="AP2" s="26" t="s">
-        <v>120</v>
+      <c r="AP2" s="23" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:42">
       <c r="B3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
       <c r="H3" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="J3" s="28"/>
+      <c r="J3" s="27"/>
       <c r="AA3" s="3" t="s">
         <v>55</v>
       </c>
@@ -1416,51 +1412,54 @@
         <v>26</v>
       </c>
       <c r="I6" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="L6" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="M6" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="34" t="s">
+      <c r="N6" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="O6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" s="39"/>
       <c r="R6" s="39"/>
-      <c r="S6" s="45" t="s">
+      <c r="S6" s="39"/>
+      <c r="T6" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="T6" s="46"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="45" t="s">
+      <c r="U6" s="46"/>
+      <c r="V6" s="47"/>
+      <c r="W6" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="W6" s="47"/>
-      <c r="X6" s="37" t="s">
+      <c r="X6" s="47"/>
+      <c r="Y6" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="37" t="s">
+      <c r="Z6" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="Z6" s="39" t="s">
+      <c r="AA6" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="AA6" s="39" t="s">
+      <c r="AB6" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="AB6" s="39" t="s">
+      <c r="AC6" s="39" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1473,327 +1472,361 @@
       <c r="G7" s="39"/>
       <c r="H7" s="39"/>
       <c r="I7" s="38"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="35"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="14"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="35"/>
+      <c r="O7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="Q7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="7" t="s">
+      <c r="U7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="V7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="6" t="s">
+      <c r="W7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="W7" s="6" t="s">
+      <c r="X7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="X7" s="38"/>
       <c r="Y7" s="38"/>
-      <c r="Z7" s="39"/>
+      <c r="Z7" s="38"/>
       <c r="AA7" s="39"/>
       <c r="AB7" s="39"/>
-    </row>
-    <row r="8" spans="1:42" s="17" customFormat="1">
-      <c r="B8" s="24"/>
+      <c r="AC7" s="39"/>
+    </row>
+    <row r="8" spans="1:42" s="15" customFormat="1">
+      <c r="B8" s="21"/>
       <c r="C8" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="4" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="18" t="s">
+      <c r="N8" s="5"/>
+      <c r="O8" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
-      <c r="Z8" s="18"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="20"/>
-    </row>
-    <row r="9" spans="1:42" s="17" customFormat="1">
-      <c r="B9" s="24"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC8" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42" s="15" customFormat="1">
+      <c r="B9" s="21"/>
       <c r="C9" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="K9" s="5"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="4" t="s">
+        <v>86</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-      <c r="X9" s="18"/>
-      <c r="Y9" s="18"/>
-      <c r="Z9" s="18"/>
-      <c r="AA9" s="19"/>
-      <c r="AB9" s="20"/>
-    </row>
-    <row r="10" spans="1:42" s="17" customFormat="1">
-      <c r="B10" s="18"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC9" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" s="15" customFormat="1">
+      <c r="B10" s="16"/>
       <c r="C10" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="5"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="5"/>
+      <c r="O10" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18" t="s">
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+      <c r="Y10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="19"/>
-      <c r="AB10" s="20"/>
-    </row>
-    <row r="11" spans="1:42" s="17" customFormat="1">
-      <c r="B11" s="18"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC10" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" s="15" customFormat="1">
+      <c r="B11" s="16"/>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K11" s="5"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="4" t="s">
+        <v>88</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
-      <c r="W11" s="18"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="18"/>
-      <c r="Z11" s="18"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="20"/>
-    </row>
-    <row r="12" spans="1:42" s="17" customFormat="1">
-      <c r="B12" s="18"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC11" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" s="15" customFormat="1">
+      <c r="B12" s="16"/>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="5"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="5"/>
+      <c r="O12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="18"/>
-      <c r="Y12" s="18"/>
-      <c r="Z12" s="18"/>
-      <c r="AA12" s="19"/>
-      <c r="AB12" s="20"/>
-    </row>
-    <row r="13" spans="1:42" s="17" customFormat="1">
-      <c r="B13" s="18"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC12" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" s="15" customFormat="1">
+      <c r="B13" s="16"/>
       <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="4" t="s">
+        <v>72</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="5"/>
+      <c r="O13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="W13" s="18" t="s">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="X13" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="Y13" s="18"/>
-      <c r="Z13" s="18"/>
-      <c r="AA13" s="19"/>
-      <c r="AB13" s="20"/>
-    </row>
-    <row r="14" spans="1:42" s="17" customFormat="1">
-      <c r="B14" s="18"/>
+      <c r="AB13" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC13" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" s="15" customFormat="1">
+      <c r="B14" s="16"/>
       <c r="C14" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="4" t="s">
+        <v>75</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
-      <c r="N14" s="18" t="s">
+      <c r="N14" s="5"/>
+      <c r="O14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
-      <c r="W14" s="18"/>
-      <c r="X14" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y14" s="18"/>
-      <c r="Z14" s="18"/>
-      <c r="AA14" s="19"/>
-      <c r="AB14" s="20"/>
-    </row>
-    <row r="15" spans="1:42" s="17" customFormat="1">
-      <c r="B15" s="18"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+      <c r="Y14" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14" s="16"/>
+      <c r="AA14" s="16"/>
+      <c r="AB14" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" s="15" customFormat="1">
+      <c r="B15" s="16"/>
       <c r="C15" s="4" t="s">
         <v>60</v>
       </c>
@@ -1805,34 +1838,39 @@
       <c r="G15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="4" t="s">
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
-      <c r="N15" s="18" t="s">
+      <c r="N15" s="5"/>
+      <c r="O15" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="19"/>
-      <c r="AB15" s="20"/>
-    </row>
-    <row r="16" spans="1:42" s="17" customFormat="1">
-      <c r="B16" s="18"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="16"/>
+      <c r="S15" s="16"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
+      <c r="W15" s="16"/>
+      <c r="X15" s="16"/>
+      <c r="Y15" s="16"/>
+      <c r="Z15" s="16"/>
+      <c r="AA15" s="16"/>
+      <c r="AB15" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC15" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" s="15" customFormat="1">
+      <c r="B16" s="16"/>
       <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
@@ -1844,264 +1882,299 @@
       <c r="G16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="4" t="s">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="5"/>
+      <c r="O16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
-      <c r="W16" s="18"/>
-      <c r="X16" s="18"/>
-      <c r="Y16" s="18"/>
-      <c r="Z16" s="18"/>
-      <c r="AA16" s="19"/>
-      <c r="AB16" s="20"/>
-    </row>
-    <row r="17" spans="2:28" s="17" customFormat="1">
-      <c r="B17" s="18"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
+      <c r="W16" s="16"/>
+      <c r="X16" s="16"/>
+      <c r="Y16" s="16"/>
+      <c r="Z16" s="16"/>
+      <c r="AA16" s="16"/>
+      <c r="AB16" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC16" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="17" spans="2:29" s="15" customFormat="1">
+      <c r="B17" s="16"/>
       <c r="C17" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I17" s="18"/>
-      <c r="J17" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="K17" s="5"/>
+      <c r="H17" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="4" t="s">
+        <v>92</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
-      <c r="W17" s="18"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="18"/>
-      <c r="Z17" s="18"/>
-      <c r="AA17" s="19"/>
-      <c r="AB17" s="20"/>
-    </row>
-    <row r="18" spans="2:28" s="17" customFormat="1">
-      <c r="B18" s="18"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="16"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
+      <c r="W17" s="16"/>
+      <c r="X17" s="16"/>
+      <c r="Y17" s="16"/>
+      <c r="Z17" s="16"/>
+      <c r="AA17" s="16"/>
+      <c r="AB17" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC17" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:29" s="15" customFormat="1">
+      <c r="B18" s="16"/>
       <c r="C18" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H18" s="18"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="K18" s="5"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="4" t="s">
+        <v>95</v>
+      </c>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
-      <c r="W18" s="18"/>
-      <c r="X18" s="18"/>
-      <c r="Y18" s="18"/>
-      <c r="Z18" s="18"/>
-      <c r="AA18" s="19"/>
-      <c r="AB18" s="20"/>
-    </row>
-    <row r="19" spans="2:28" s="17" customFormat="1">
-      <c r="B19" s="18"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="16"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="16"/>
+      <c r="Z18" s="16"/>
+      <c r="AA18" s="16"/>
+      <c r="AB18" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC18" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:29" s="15" customFormat="1">
+      <c r="B19" s="16"/>
       <c r="C19" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="H19" s="18"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="5"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
-      <c r="W19" s="18"/>
-      <c r="X19" s="18"/>
-      <c r="Y19" s="18"/>
-      <c r="Z19" s="18"/>
-      <c r="AA19" s="19"/>
-      <c r="AB19" s="20"/>
-    </row>
-    <row r="20" spans="2:28" s="17" customFormat="1">
-      <c r="B20" s="18"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+      <c r="R19" s="16"/>
+      <c r="S19" s="16"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
+      <c r="W19" s="16"/>
+      <c r="X19" s="16"/>
+      <c r="Y19" s="16"/>
+      <c r="Z19" s="16"/>
+      <c r="AA19" s="16"/>
+      <c r="AB19" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC19" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="20" spans="2:29" s="15" customFormat="1">
+      <c r="B20" s="16"/>
       <c r="C20" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>103</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="4" t="s">
+        <v>99</v>
+      </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
-      <c r="W20" s="18"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="18"/>
-      <c r="Z20" s="18"/>
-      <c r="AA20" s="19"/>
-      <c r="AB20" s="20"/>
-    </row>
-    <row r="21" spans="2:28" s="17" customFormat="1">
-      <c r="B21" s="18"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="16"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
+      <c r="W20" s="16"/>
+      <c r="X20" s="16"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="16"/>
+      <c r="AA20" s="16"/>
+      <c r="AB20" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC20" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="21" spans="2:29" s="15" customFormat="1">
+      <c r="B21" s="16"/>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="K21" s="5"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
-      <c r="W21" s="18"/>
-      <c r="X21" s="18"/>
-      <c r="Y21" s="18"/>
-      <c r="Z21" s="18"/>
-      <c r="AA21" s="19"/>
-      <c r="AB21" s="20"/>
-    </row>
-    <row r="22" spans="2:28" s="17" customFormat="1">
-      <c r="B22" s="18"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="16"/>
+      <c r="S21" s="16"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
+      <c r="W21" s="16"/>
+      <c r="X21" s="16"/>
+      <c r="Y21" s="16"/>
+      <c r="Z21" s="16"/>
+      <c r="AA21" s="16"/>
+      <c r="AB21" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC21" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:29" s="15" customFormat="1">
+      <c r="B22" s="16"/>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="18"/>
-      <c r="J22" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="19"/>
-      <c r="AB22" s="20"/>
-    </row>
-    <row r="23" spans="2:28" s="17" customFormat="1">
-      <c r="B23" s="18"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="16"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="16"/>
+      <c r="AA22" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AB22" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC22" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" s="15" customFormat="1">
+      <c r="B23" s="16"/>
       <c r="C23" s="4" t="s">
         <v>65</v>
       </c>
@@ -2110,177 +2183,197 @@
         <v>66</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="19"/>
-      <c r="AB23" s="20"/>
-    </row>
-    <row r="24" spans="2:28" s="17" customFormat="1">
-      <c r="B24" s="18"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC23" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" s="15" customFormat="1">
+      <c r="B24" s="16"/>
       <c r="C24" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="16"/>
+      <c r="J24" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="I24" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="18"/>
-      <c r="AA24" s="19"/>
-      <c r="AB24" s="20"/>
-    </row>
-    <row r="25" spans="2:28" s="17" customFormat="1">
-      <c r="B25" s="18"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+      <c r="W24" s="16"/>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC24" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="25" spans="2:29" s="15" customFormat="1">
+      <c r="B25" s="16"/>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I25" s="16"/>
+      <c r="J25" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>109</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Y25" s="18"/>
-      <c r="Z25" s="18"/>
-      <c r="AA25" s="19"/>
-      <c r="AB25" s="20"/>
-    </row>
-    <row r="26" spans="2:28" s="17" customFormat="1">
-      <c r="B26" s="18"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+      <c r="W25" s="16"/>
+      <c r="X25" s="16"/>
+      <c r="Y25" s="16"/>
+      <c r="Z25" s="16"/>
+      <c r="AA25" s="16"/>
+      <c r="AB25" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC25" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" s="15" customFormat="1">
+      <c r="B26" s="16"/>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I26" s="25"/>
-      <c r="J26" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="K26" s="5"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-      <c r="Y26" s="18"/>
-      <c r="Z26" s="18"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="20"/>
-    </row>
-    <row r="27" spans="2:28" s="12" customFormat="1">
-      <c r="B27" s="18"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="16"/>
+      <c r="AB26" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC26" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" s="12" customFormat="1">
+      <c r="B27" s="16"/>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="K27" s="5"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-      <c r="N27" s="13"/>
+      <c r="N27" s="5"/>
       <c r="O27" s="13"/>
       <c r="P27" s="13"/>
       <c r="Q27" s="13"/>
@@ -2293,11 +2386,16 @@
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="15"/>
-    </row>
-    <row r="28" spans="2:28" s="17" customFormat="1">
-      <c r="B28" s="24"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC27" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" s="15" customFormat="1">
+      <c r="B28" s="21"/>
       <c r="C28" s="4" t="s">
         <v>67</v>
       </c>
@@ -2309,31 +2407,36 @@
       <c r="G28" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="4" t="s">
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="20"/>
-    </row>
-    <row r="29" spans="2:28">
+      <c r="N28" s="5"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC28" s="17">
+        <v>42114</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2362,7 +2465,7 @@
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
     </row>
-    <row r="30" spans="2:28">
+    <row r="30" spans="2:29">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2391,7 +2494,7 @@
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
     </row>
-    <row r="31" spans="2:28">
+    <row r="31" spans="2:29">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2420,7 +2523,7 @@
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
     </row>
-    <row r="32" spans="2:28">
+    <row r="32" spans="2:29">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2769,21 +2872,21 @@
       <c r="AB43" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
     <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="AA6:AA7"/>
     <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="T6:V6"/>
+    <mergeCell ref="W6:X6"/>
     <mergeCell ref="N5:W5"/>
     <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="X6:X7"/>
     <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="Z6:Z7"/>
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
     <mergeCell ref="F5:J5"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="C6:C7"/>
@@ -2791,11 +2894,12 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="B6:B7"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -2808,11 +2912,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B1048576 B1:B7">
       <formula1>$AB$3:$AC$3</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X12 X14:X1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y13">
+      <formula1>$AK$2:$AP$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X1:X5 Y14:Y28 X29:X1048576 Y6:Y12">
       <formula1>$AK$2:$AO$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X13">
-      <formula1>$AK$2:$AP$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
